--- a/xlsx/八国集团同五国_intext.xlsx
+++ b/xlsx/八国集团同五国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>八国集团同五国</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>八大工業國組織</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_八国集团同五国</t>
+    <t>八大工业国组织</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_八国集团同五国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -155,19 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1170,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1202,10 +1196,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1231,10 +1225,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
